--- a/build/动态熵权_GM模型结果.xlsx
+++ b/build/动态熵权_GM模型结果.xlsx
@@ -13,6 +13,7 @@
     <sheet name="最终综合排名" sheetId="4" state="visible" r:id="rId4"/>
     <sheet name="前3_排序" sheetId="5" state="visible" r:id="rId5"/>
     <sheet name="前5_不排序" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet name="Alpha敏感性" sheetId="7" state="visible" r:id="rId7"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -10549,7 +10550,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F24"/>
+  <dimension ref="A1:G24"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -10585,6 +10586,11 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>预测下一期得分</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
           <t>序列点数</t>
         </is>
       </c>
@@ -10608,6 +10614,9 @@
         <v>0.4065350167450472</v>
       </c>
       <c r="F2" t="n">
+        <v>0.3584901362425479</v>
+      </c>
+      <c r="G2" t="n">
         <v>1</v>
       </c>
     </row>
@@ -10630,6 +10639,9 @@
         <v>0.03631699017494389</v>
       </c>
       <c r="F3" t="n">
+        <v>0.2831535389539886</v>
+      </c>
+      <c r="G3" t="n">
         <v>1</v>
       </c>
     </row>
@@ -10652,6 +10664,9 @@
         <v>0.2284362395924375</v>
       </c>
       <c r="F4" t="n">
+        <v>0.3222483681789111</v>
+      </c>
+      <c r="G4" t="n">
         <v>1</v>
       </c>
     </row>
@@ -10674,6 +10689,9 @@
         <v>1</v>
       </c>
       <c r="F5" t="n">
+        <v>0.4792558181909765</v>
+      </c>
+      <c r="G5" t="n">
         <v>1</v>
       </c>
     </row>
@@ -10696,6 +10714,9 @@
         <v>0.069335364884102</v>
       </c>
       <c r="F6" t="n">
+        <v>0.3141791277249695</v>
+      </c>
+      <c r="G6" t="n">
         <v>4</v>
       </c>
     </row>
@@ -10718,6 +10739,9 @@
         <v>0.0877577912540836</v>
       </c>
       <c r="F7" t="n">
+        <v>0.3049816143099875</v>
+      </c>
+      <c r="G7" t="n">
         <v>3</v>
       </c>
     </row>
@@ -10740,6 +10764,9 @@
         <v>0.7854803144342132</v>
       </c>
       <c r="F8" t="n">
+        <v>0.4462895487077745</v>
+      </c>
+      <c r="G8" t="n">
         <v>3</v>
       </c>
     </row>
@@ -10762,6 +10789,9 @@
         <v>0.3394815299773952</v>
       </c>
       <c r="F9" t="n">
+        <v>0.4483792769192085</v>
+      </c>
+      <c r="G9" t="n">
         <v>4</v>
       </c>
     </row>
@@ -10784,6 +10814,9 @@
         <v>0.9535944712734659</v>
       </c>
       <c r="F10" t="n">
+        <v>0.4795992268846589</v>
+      </c>
+      <c r="G10" t="n">
         <v>4</v>
       </c>
     </row>
@@ -10806,6 +10839,9 @@
         <v>0.6861405358557903</v>
       </c>
       <c r="F11" t="n">
+        <v>0.5082219803867911</v>
+      </c>
+      <c r="G11" t="n">
         <v>4</v>
       </c>
     </row>
@@ -10828,6 +10864,9 @@
         <v>0</v>
       </c>
       <c r="F12" t="n">
+        <v>0.2567872816892116</v>
+      </c>
+      <c r="G12" t="n">
         <v>4</v>
       </c>
     </row>
@@ -10850,6 +10889,9 @@
         <v>0.01430621839549226</v>
       </c>
       <c r="F13" t="n">
+        <v>0.3248841913762082</v>
+      </c>
+      <c r="G13" t="n">
         <v>4</v>
       </c>
     </row>
@@ -10872,6 +10914,9 @@
         <v>0.2935864719950285</v>
       </c>
       <c r="F14" t="n">
+        <v>0.3567260494161495</v>
+      </c>
+      <c r="G14" t="n">
         <v>4</v>
       </c>
     </row>
@@ -10894,6 +10939,9 @@
         <v>0.05540739137838566</v>
       </c>
       <c r="F15" t="n">
+        <v>0.2938460463923462</v>
+      </c>
+      <c r="G15" t="n">
         <v>3</v>
       </c>
     </row>
@@ -10916,6 +10964,9 @@
         <v>0.5616980394590001</v>
       </c>
       <c r="F16" t="n">
+        <v>0.4229992230464816</v>
+      </c>
+      <c r="G16" t="n">
         <v>4</v>
       </c>
     </row>
@@ -10938,6 +10989,9 @@
         <v>0.6430851360788353</v>
       </c>
       <c r="F17" t="n">
+        <v>0.4438789945225583</v>
+      </c>
+      <c r="G17" t="n">
         <v>3</v>
       </c>
     </row>
@@ -10960,6 +11014,9 @@
         <v>0.3301339271235387</v>
       </c>
       <c r="F18" t="n">
+        <v>0.3429430863742649</v>
+      </c>
+      <c r="G18" t="n">
         <v>1</v>
       </c>
     </row>
@@ -10982,6 +11039,9 @@
         <v>0.4752748318794257</v>
       </c>
       <c r="F19" t="n">
+        <v>0.3724781740980954</v>
+      </c>
+      <c r="G19" t="n">
         <v>1</v>
       </c>
     </row>
@@ -11004,6 +11064,9 @@
         <v>0.3811625618520437</v>
       </c>
       <c r="F20" t="n">
+        <v>0.35332703158715</v>
+      </c>
+      <c r="G20" t="n">
         <v>1</v>
       </c>
     </row>
@@ -11026,6 +11089,9 @@
         <v>0.07988950242217399</v>
       </c>
       <c r="F21" t="n">
+        <v>0.2935082288237538</v>
+      </c>
+      <c r="G21" t="n">
         <v>4</v>
       </c>
     </row>
@@ -11048,6 +11114,9 @@
         <v>0.2007912487523813</v>
       </c>
       <c r="F22" t="n">
+        <v>0.3471538266970988</v>
+      </c>
+      <c r="G22" t="n">
         <v>3</v>
       </c>
     </row>
@@ -11070,6 +11139,9 @@
         <v>0.2479288260338891</v>
       </c>
       <c r="F23" t="n">
+        <v>0.3461480065475975</v>
+      </c>
+      <c r="G23" t="n">
         <v>3</v>
       </c>
     </row>
@@ -11092,6 +11164,9 @@
         <v>0.4409604784061866</v>
       </c>
       <c r="F24" t="n">
+        <v>0.3143458815316134</v>
+      </c>
+      <c r="G24" t="n">
         <v>3</v>
       </c>
     </row>
@@ -11106,7 +11181,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D24"/>
+  <dimension ref="A1:E24"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -11132,6 +11207,11 @@
       </c>
       <c r="D1" s="1" t="inlineStr">
         <is>
+          <t>预测下一期得分</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
           <t>最终综合得分</t>
         </is>
       </c>
@@ -11149,7 +11229,10 @@
         <v>1</v>
       </c>
       <c r="D2" t="n">
-        <v>0.7792558181909764</v>
+        <v>0.4792558181909765</v>
+      </c>
+      <c r="E2" t="n">
+        <v>1.429255818190976</v>
       </c>
     </row>
     <row r="3">
@@ -11165,7 +11248,10 @@
         <v>0.9535944712734659</v>
       </c>
       <c r="D3" t="n">
-        <v>0.7494727212651504</v>
+        <v>0.4795992268846589</v>
+      </c>
+      <c r="E3" t="n">
+        <v>1.369309127592903</v>
       </c>
     </row>
     <row r="4">
@@ -11181,7 +11267,10 @@
         <v>0.7854803144342132</v>
       </c>
       <c r="D4" t="n">
-        <v>0.6779771186447416</v>
+        <v>0.4462895487077745</v>
+      </c>
+      <c r="E4" t="n">
+        <v>1.18853932302698</v>
       </c>
     </row>
     <row r="5">
@@ -11197,7 +11286,10 @@
         <v>0.6861405358557903</v>
       </c>
       <c r="D5" t="n">
-        <v>0.6660478959951011</v>
+        <v>0.5082219803867911</v>
+      </c>
+      <c r="E5" t="n">
+        <v>1.112039244301365</v>
       </c>
     </row>
     <row r="6">
@@ -11213,7 +11305,10 @@
         <v>0.6430851360788353</v>
       </c>
       <c r="D6" t="n">
-        <v>0.6222161332290482</v>
+        <v>0.4438789945225583</v>
+      </c>
+      <c r="E6" t="n">
+        <v>1.040221471680291</v>
       </c>
     </row>
     <row r="7">
@@ -11229,7 +11324,10 @@
         <v>0.5616980394590001</v>
       </c>
       <c r="D7" t="n">
-        <v>0.5712143302163148</v>
+        <v>0.4229992230464816</v>
+      </c>
+      <c r="E7" t="n">
+        <v>0.9363180558646649</v>
       </c>
     </row>
     <row r="8">
@@ -11245,39 +11343,48 @@
         <v>0.4752748318794257</v>
       </c>
       <c r="D8" t="n">
-        <v>0.5150606236619231</v>
+        <v>0.3724781740980954</v>
+      </c>
+      <c r="E8" t="n">
+        <v>0.8239892643835498</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>c12</t>
+          <t>B1</t>
         </is>
       </c>
       <c r="B9" t="n">
-        <v>0.391122830890436</v>
+        <v>0.3584901362425479</v>
       </c>
       <c r="C9" t="n">
-        <v>0.3394815299773952</v>
+        <v>0.4065350167450472</v>
       </c>
       <c r="D9" t="n">
-        <v>0.4929672898836546</v>
+        <v>0.3584901362425479</v>
+      </c>
+      <c r="E9" t="n">
+        <v>0.7446984021503427</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>B1</t>
+          <t>c91</t>
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0.3584901362425479</v>
+        <v>0.3225277998519469</v>
       </c>
       <c r="C10" t="n">
-        <v>0.4065350167450472</v>
+        <v>0.4409604784061866</v>
       </c>
       <c r="D10" t="n">
-        <v>0.480450641266062</v>
+        <v>0.3143458815316134</v>
+      </c>
+      <c r="E10" t="n">
+        <v>0.7414402543378242</v>
       </c>
     </row>
     <row r="11">
@@ -11293,23 +11400,29 @@
         <v>0.3811625618520437</v>
       </c>
       <c r="D11" t="n">
-        <v>0.4676758001427631</v>
+        <v>0.35332703158715</v>
+      </c>
+      <c r="E11" t="n">
+        <v>0.7154314653465915</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>c91</t>
+          <t>c12</t>
         </is>
       </c>
       <c r="B12" t="n">
-        <v>0.3225277998519469</v>
+        <v>0.391122830890436</v>
       </c>
       <c r="C12" t="n">
-        <v>0.4409604784061866</v>
+        <v>0.3394815299773952</v>
       </c>
       <c r="D12" t="n">
-        <v>0.4548159433738029</v>
+        <v>0.4483792769192085</v>
+      </c>
+      <c r="E12" t="n">
+        <v>0.7136302843689615</v>
       </c>
     </row>
     <row r="13">
@@ -11325,7 +11438,10 @@
         <v>0.3301339271235387</v>
       </c>
       <c r="D13" t="n">
-        <v>0.4419832645113265</v>
+        <v>0.3429430863742649</v>
+      </c>
+      <c r="E13" t="n">
+        <v>0.6565703171416266</v>
       </c>
     </row>
     <row r="14">
@@ -11341,7 +11457,10 @@
         <v>0.2935864719950285</v>
       </c>
       <c r="D14" t="n">
-        <v>0.4282677725552806</v>
+        <v>0.3567260494161495</v>
+      </c>
+      <c r="E14" t="n">
+        <v>0.6190989793520492</v>
       </c>
     </row>
     <row r="15">
@@ -11357,39 +11476,48 @@
         <v>0.2479288260338891</v>
       </c>
       <c r="D15" t="n">
-        <v>0.4038300543467754</v>
+        <v>0.3461480065475975</v>
+      </c>
+      <c r="E15" t="n">
+        <v>0.5649837912688034</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>c81</t>
+          <t>B3</t>
         </is>
       </c>
       <c r="B16" t="n">
-        <v>0.3333616238649426</v>
+        <v>0.3222483681789111</v>
       </c>
       <c r="C16" t="n">
-        <v>0.2007912487523813</v>
+        <v>0.2284362395924375</v>
       </c>
       <c r="D16" t="n">
-        <v>0.3935989984906569</v>
+        <v>0.3222483681789111</v>
+      </c>
+      <c r="E16" t="n">
+        <v>0.5392627957917266</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>B3</t>
+          <t>c81</t>
         </is>
       </c>
       <c r="B17" t="n">
-        <v>0.3222483681789111</v>
+        <v>0.3333616238649426</v>
       </c>
       <c r="C17" t="n">
-        <v>0.2284362395924375</v>
+        <v>0.2007912487523813</v>
       </c>
       <c r="D17" t="n">
-        <v>0.3907792400566423</v>
+        <v>0.3471538266970988</v>
+      </c>
+      <c r="E17" t="n">
+        <v>0.5241133101797047</v>
       </c>
     </row>
     <row r="18">
@@ -11405,39 +11533,48 @@
         <v>0.0877577912540836</v>
       </c>
       <c r="D18" t="n">
-        <v>0.3304586142485166</v>
+        <v>0.3049816143099875</v>
+      </c>
+      <c r="E18" t="n">
+        <v>0.3875011785636709</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>c01</t>
+          <t>c72</t>
         </is>
       </c>
       <c r="B19" t="n">
-        <v>0.3001807198966004</v>
+        <v>0.2913293083534951</v>
       </c>
       <c r="C19" t="n">
-        <v>0.069335364884102</v>
+        <v>0.07988950242217399</v>
       </c>
       <c r="D19" t="n">
-        <v>0.320981329361831</v>
+        <v>0.2935082288237538</v>
+      </c>
+      <c r="E19" t="n">
+        <v>0.3672243356545604</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>c72</t>
+          <t>c01</t>
         </is>
       </c>
       <c r="B20" t="n">
-        <v>0.2913293083534951</v>
+        <v>0.3001807198966004</v>
       </c>
       <c r="C20" t="n">
-        <v>0.07988950242217399</v>
+        <v>0.069335364884102</v>
       </c>
       <c r="D20" t="n">
-        <v>0.3152961590801474</v>
+        <v>0.3141791277249695</v>
+      </c>
+      <c r="E20" t="n">
+        <v>0.3660493165364974</v>
       </c>
     </row>
     <row r="21">
@@ -11453,39 +11590,48 @@
         <v>0.05540739137838566</v>
       </c>
       <c r="D21" t="n">
-        <v>0.3053667417242188</v>
+        <v>0.2938460463923462</v>
+      </c>
+      <c r="E21" t="n">
+        <v>0.3413815461201695</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>c41</t>
+          <t>B2</t>
         </is>
       </c>
       <c r="B22" t="n">
-        <v>0.2948530414453191</v>
+        <v>0.2831535389539886</v>
       </c>
       <c r="C22" t="n">
-        <v>0.01430621839549226</v>
+        <v>0.03631699017494389</v>
       </c>
       <c r="D22" t="n">
-        <v>0.2991449069639668</v>
+        <v>0.2831535389539886</v>
+      </c>
+      <c r="E22" t="n">
+        <v>0.3176546796201853</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>B2</t>
+          <t>c41</t>
         </is>
       </c>
       <c r="B23" t="n">
-        <v>0.2831535389539886</v>
+        <v>0.2948530414453191</v>
       </c>
       <c r="C23" t="n">
-        <v>0.03631699017494389</v>
+        <v>0.01430621839549226</v>
       </c>
       <c r="D23" t="n">
-        <v>0.2940486360064717</v>
+        <v>0.3248841913762082</v>
+      </c>
+      <c r="E23" t="n">
+        <v>0.3084439489210368</v>
       </c>
     </row>
     <row r="24">
@@ -11501,6 +11647,9 @@
         <v>0</v>
       </c>
       <c r="D24" t="n">
+        <v>0.2567872816892116</v>
+      </c>
+      <c r="E24" t="n">
         <v>0.2540889925002875</v>
       </c>
     </row>
@@ -11515,7 +11664,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D4"/>
+  <dimension ref="A1:E4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -11541,6 +11690,11 @@
       </c>
       <c r="D1" s="1" t="inlineStr">
         <is>
+          <t>预测下一期得分</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
           <t>最终综合得分</t>
         </is>
       </c>
@@ -11558,7 +11712,10 @@
         <v>1</v>
       </c>
       <c r="D2" t="n">
-        <v>0.7792558181909764</v>
+        <v>0.4792558181909765</v>
+      </c>
+      <c r="E2" t="n">
+        <v>1.429255818190976</v>
       </c>
     </row>
     <row r="3">
@@ -11574,7 +11731,10 @@
         <v>0.9535944712734659</v>
       </c>
       <c r="D3" t="n">
-        <v>0.7494727212651504</v>
+        <v>0.4795992268846589</v>
+      </c>
+      <c r="E3" t="n">
+        <v>1.369309127592903</v>
       </c>
     </row>
     <row r="4">
@@ -11590,7 +11750,10 @@
         <v>0.7854803144342132</v>
       </c>
       <c r="D4" t="n">
-        <v>0.6779771186447416</v>
+        <v>0.4462895487077745</v>
+      </c>
+      <c r="E4" t="n">
+        <v>1.18853932302698</v>
       </c>
     </row>
   </sheetData>
@@ -11604,7 +11767,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D6"/>
+  <dimension ref="A1:E6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -11630,6 +11793,11 @@
       </c>
       <c r="D1" s="1" t="inlineStr">
         <is>
+          <t>预测下一期得分</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
           <t>最终综合得分</t>
         </is>
       </c>
@@ -11647,7 +11815,10 @@
         <v>1</v>
       </c>
       <c r="D2" t="n">
-        <v>0.7792558181909764</v>
+        <v>0.4792558181909765</v>
+      </c>
+      <c r="E2" t="n">
+        <v>1.429255818190976</v>
       </c>
     </row>
     <row r="3">
@@ -11663,7 +11834,10 @@
         <v>0.9535944712734659</v>
       </c>
       <c r="D3" t="n">
-        <v>0.7494727212651504</v>
+        <v>0.4795992268846589</v>
+      </c>
+      <c r="E3" t="n">
+        <v>1.369309127592903</v>
       </c>
     </row>
     <row r="4">
@@ -11679,7 +11853,10 @@
         <v>0.7854803144342132</v>
       </c>
       <c r="D4" t="n">
-        <v>0.6779771186447416</v>
+        <v>0.4462895487077745</v>
+      </c>
+      <c r="E4" t="n">
+        <v>1.18853932302698</v>
       </c>
     </row>
     <row r="5">
@@ -11695,7 +11872,10 @@
         <v>0.6861405358557903</v>
       </c>
       <c r="D5" t="n">
-        <v>0.6660478959951011</v>
+        <v>0.5082219803867911</v>
+      </c>
+      <c r="E5" t="n">
+        <v>1.112039244301365</v>
       </c>
     </row>
     <row r="6">
@@ -11711,7 +11891,461 @@
         <v>0.6430851360788353</v>
       </c>
       <c r="D6" t="n">
-        <v>0.6222161332290482</v>
+        <v>0.4438789945225583</v>
+      </c>
+      <c r="E6" t="n">
+        <v>1.040221471680291</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:F21"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>alpha</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>corr_pred_next</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>range</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>std</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>range_norm</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>J</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="n">
+        <v>0.9693675889328063</v>
+      </c>
+      <c r="C2" t="n">
+        <v>3.561845907171961</v>
+      </c>
+      <c r="D2" t="n">
+        <v>1</v>
+      </c>
+      <c r="E2" t="n">
+        <v>0</v>
+      </c>
+      <c r="F2" t="n">
+        <v>0.9693675889328063</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="n">
+        <v>0.05</v>
+      </c>
+      <c r="B3" t="n">
+        <v>0.9693675889328063</v>
+      </c>
+      <c r="C3" t="n">
+        <v>3.734129447631989</v>
+      </c>
+      <c r="D3" t="n">
+        <v>1.048072160623445</v>
+      </c>
+      <c r="E3" t="n">
+        <v>0.0526315789473684</v>
+      </c>
+      <c r="F3" t="n">
+        <v>0.97989390472228</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="B4" t="n">
+        <v>0.9693675889328063</v>
+      </c>
+      <c r="C4" t="n">
+        <v>3.906412988092017</v>
+      </c>
+      <c r="D4" t="n">
+        <v>1.096316791692891</v>
+      </c>
+      <c r="E4" t="n">
+        <v>0.1052631578947368</v>
+      </c>
+      <c r="F4" t="n">
+        <v>0.9904202205117536</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="n">
+        <v>0.15</v>
+      </c>
+      <c r="B5" t="n">
+        <v>0.9693675889328063</v>
+      </c>
+      <c r="C5" t="n">
+        <v>4.078696528552045</v>
+      </c>
+      <c r="D5" t="n">
+        <v>1.144712086780641</v>
+      </c>
+      <c r="E5" t="n">
+        <v>0.1578947368421052</v>
+      </c>
+      <c r="F5" t="n">
+        <v>1.000946536301227</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="B6" t="n">
+        <v>0.9654150197628459</v>
+      </c>
+      <c r="C6" t="n">
+        <v>4.250980069012073</v>
+      </c>
+      <c r="D6" t="n">
+        <v>1.193239714179673</v>
+      </c>
+      <c r="E6" t="n">
+        <v>0.2105263157894736</v>
+      </c>
+      <c r="F6" t="n">
+        <v>1.007520282920741</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="n">
+        <v>0.25</v>
+      </c>
+      <c r="B7" t="n">
+        <v>0.9545454545454547</v>
+      </c>
+      <c r="C7" t="n">
+        <v>4.423263609472102</v>
+      </c>
+      <c r="D7" t="n">
+        <v>1.241884161010794</v>
+      </c>
+      <c r="E7" t="n">
+        <v>0.2631578947368423</v>
+      </c>
+      <c r="F7" t="n">
+        <v>1.007177033492823</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="n">
+        <v>0.3</v>
+      </c>
+      <c r="B8" t="n">
+        <v>0.9545454545454547</v>
+      </c>
+      <c r="C8" t="n">
+        <v>4.595547149932129</v>
+      </c>
+      <c r="D8" t="n">
+        <v>1.290632218427613</v>
+      </c>
+      <c r="E8" t="n">
+        <v>0.3157894736842105</v>
+      </c>
+      <c r="F8" t="n">
+        <v>1.017703349282297</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="n">
+        <v>0.35</v>
+      </c>
+      <c r="B9" t="n">
+        <v>0.9545454545454547</v>
+      </c>
+      <c r="C9" t="n">
+        <v>4.767830690392157</v>
+      </c>
+      <c r="D9" t="n">
+        <v>1.339472574231095</v>
+      </c>
+      <c r="E9" t="n">
+        <v>0.3684210526315789</v>
+      </c>
+      <c r="F9" t="n">
+        <v>1.02822966507177</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="n">
+        <v>0.4</v>
+      </c>
+      <c r="B10" t="n">
+        <v>0.9535573122529646</v>
+      </c>
+      <c r="C10" t="n">
+        <v>4.940114230852186</v>
+      </c>
+      <c r="D10" t="n">
+        <v>1.388395487961256</v>
+      </c>
+      <c r="E10" t="n">
+        <v>0.4210526315789475</v>
+      </c>
+      <c r="F10" t="n">
+        <v>1.037767838568754</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="n">
+        <v>0.45</v>
+      </c>
+      <c r="B11" t="n">
+        <v>0.9535573122529646</v>
+      </c>
+      <c r="C11" t="n">
+        <v>5.112397771312214</v>
+      </c>
+      <c r="D11" t="n">
+        <v>1.437392529848778</v>
+      </c>
+      <c r="E11" t="n">
+        <v>0.4736842105263159</v>
+      </c>
+      <c r="F11" t="n">
+        <v>1.048294154358228</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="B12" t="n">
+        <v>0.9535573122529646</v>
+      </c>
+      <c r="C12" t="n">
+        <v>5.284681311772241</v>
+      </c>
+      <c r="D12" t="n">
+        <v>1.486456369604896</v>
+      </c>
+      <c r="E12" t="n">
+        <v>0.5263157894736841</v>
+      </c>
+      <c r="F12" t="n">
+        <v>1.058820470147701</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="n">
+        <v>0.55</v>
+      </c>
+      <c r="B13" t="n">
+        <v>0.9535573122529646</v>
+      </c>
+      <c r="C13" t="n">
+        <v>5.45696485223227</v>
+      </c>
+      <c r="D13" t="n">
+        <v>1.535580604401106</v>
+      </c>
+      <c r="E13" t="n">
+        <v>0.5789473684210528</v>
+      </c>
+      <c r="F13" t="n">
+        <v>1.069346785937175</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="n">
+        <v>0.6000000000000001</v>
+      </c>
+      <c r="B14" t="n">
+        <v>0.9466403162055337</v>
+      </c>
+      <c r="C14" t="n">
+        <v>5.629248392692298</v>
+      </c>
+      <c r="D14" t="n">
+        <v>1.584759617887445</v>
+      </c>
+      <c r="E14" t="n">
+        <v>0.6315789473684211</v>
+      </c>
+      <c r="F14" t="n">
+        <v>1.072956105679218</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="n">
+        <v>0.65</v>
+      </c>
+      <c r="B15" t="n">
+        <v>0.9426877470355731</v>
+      </c>
+      <c r="C15" t="n">
+        <v>5.801531933152326</v>
+      </c>
+      <c r="D15" t="n">
+        <v>1.633988463961927</v>
+      </c>
+      <c r="E15" t="n">
+        <v>0.6842105263157896</v>
+      </c>
+      <c r="F15" t="n">
+        <v>1.079529852298731</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="n">
+        <v>0.7000000000000001</v>
+      </c>
+      <c r="B16" t="n">
+        <v>0.9377470355731227</v>
+      </c>
+      <c r="C16" t="n">
+        <v>5.973815473612353</v>
+      </c>
+      <c r="D16" t="n">
+        <v>1.683262770405903</v>
+      </c>
+      <c r="E16" t="n">
+        <v>0.7368421052631577</v>
+      </c>
+      <c r="F16" t="n">
+        <v>1.085115456625754</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="n">
+        <v>0.75</v>
+      </c>
+      <c r="B17" t="n">
+        <v>0.9377470355731227</v>
+      </c>
+      <c r="C17" t="n">
+        <v>6.146099014072382</v>
+      </c>
+      <c r="D17" t="n">
+        <v>1.732578658563141</v>
+      </c>
+      <c r="E17" t="n">
+        <v>0.7894736842105263</v>
+      </c>
+      <c r="F17" t="n">
+        <v>1.095641772415228</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="n">
+        <v>0.8</v>
+      </c>
+      <c r="B18" t="n">
+        <v>0.9377470355731227</v>
+      </c>
+      <c r="C18" t="n">
+        <v>6.31838255453241</v>
+      </c>
+      <c r="D18" t="n">
+        <v>1.781932676052142</v>
+      </c>
+      <c r="E18" t="n">
+        <v>0.8421052631578948</v>
+      </c>
+      <c r="F18" t="n">
+        <v>1.106168088204702</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="n">
+        <v>0.8500000000000001</v>
+      </c>
+      <c r="B19" t="n">
+        <v>0.9308300395256918</v>
+      </c>
+      <c r="C19" t="n">
+        <v>6.490666094992438</v>
+      </c>
+      <c r="D19" t="n">
+        <v>1.831321740125488</v>
+      </c>
+      <c r="E19" t="n">
+        <v>0.8947368421052632</v>
+      </c>
+      <c r="F19" t="n">
+        <v>1.109777407946744</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="n">
+        <v>0.9</v>
+      </c>
+      <c r="B20" t="n">
+        <v>0.9308300395256918</v>
+      </c>
+      <c r="C20" t="n">
+        <v>6.662949635452466</v>
+      </c>
+      <c r="D20" t="n">
+        <v>1.880743089773333</v>
+      </c>
+      <c r="E20" t="n">
+        <v>0.9473684210526316</v>
+      </c>
+      <c r="F20" t="n">
+        <v>1.120303723736218</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="n">
+        <v>0.9500000000000001</v>
+      </c>
+      <c r="B21" t="n">
+        <v>0.9308300395256918</v>
+      </c>
+      <c r="C21" t="n">
+        <v>6.835233175912494</v>
+      </c>
+      <c r="D21" t="n">
+        <v>1.930194245044793</v>
+      </c>
+      <c r="E21" t="n">
+        <v>1</v>
+      </c>
+      <c r="F21" t="n">
+        <v>1.130830039525692</v>
       </c>
     </row>
   </sheetData>
